--- a/bank statement generator/bank_statements/statement_91.xlsx
+++ b/bank statement generator/bank_statements/statement_91.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 09.07.2024</t>
+          <t>KONTOSTAND AM 21.07.2025</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,110 +759,110 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>13.07.</t>
+          <t>22.07.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>14.07.</t>
+          <t>23.07.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>PAYPAL YQXXQS</t>
+          <t>BEITRAG Allianz SE K-66466022</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>14,11-</t>
+          <t>55,49-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>14.07.</t>
+          <t>24.07.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>15.07.</t>
+          <t>25.07.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>BEITRAG Allianz SE K-33108938</t>
+          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>54,53-</t>
+          <t>25,19-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>18.07.</t>
+          <t>27.07.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>19.07.</t>
+          <t>28.07.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>KARTENZAHLUNG ARAL TANKSTELLE</t>
+          <t>RECHNUNG VODAFONE GMBH 63775419</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>88,37-</t>
+          <t>40,44-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>21.07.</t>
+          <t>30.07.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>22.07.</t>
+          <t>31.07.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
+          <t>PAYPAL RDCOGF</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>24,42-</t>
+          <t>88,74-</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>25.07.</t>
+          <t>03.08.</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>26.07.</t>
+          <t>04.08.</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>KARTENZ./25.07 EDEKA RO</t>
+          <t>ABSCHLAG STROM Stadtwerke Rosenheim 92254201</t>
         </is>
       </c>
       <c r="E10" s="17" t="inlineStr">
         <is>
-          <t>147,63-</t>
+          <t>84,53-</t>
         </is>
       </c>
     </row>
@@ -877,12 +877,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 28.07.2024</t>
+          <t>KONTOSTAND AM 06.08.2025</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>329,06-</t>
+          <t>294,39-</t>
         </is>
       </c>
     </row>
@@ -890,7 +890,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 02.08.2024</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 11.08.2025</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
